--- a/data/trans_orig/P0902-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11147</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5787</v>
+        <v>5565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18856</v>
+        <v>19476</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02256212908172018</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01171336933048125</v>
+        <v>0.01126304678505217</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03816427526068172</v>
+        <v>0.03941964354568096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>19960</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12363</v>
+        <v>12759</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30614</v>
+        <v>30818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04269650930154944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02644573684314986</v>
+        <v>0.02729230321890973</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06548667573654156</v>
+        <v>0.06592281952463093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -786,19 +786,19 @@
         <v>31107</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22893</v>
+        <v>21317</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43416</v>
+        <v>43991</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03235108873962946</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02380788565124432</v>
+        <v>0.02216899260469091</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04515238136725543</v>
+        <v>0.04575000086235545</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>482917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>475208</v>
+        <v>474588</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>488277</v>
+        <v>488499</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9774378709182798</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9618357247393182</v>
+        <v>0.9605803564543193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9882866306695188</v>
+        <v>0.988736953214948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>469</v>
@@ -836,19 +836,19 @@
         <v>447529</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>436875</v>
+        <v>436671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>455126</v>
+        <v>454730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9573034906984506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9345133242634586</v>
+        <v>0.9340771804753691</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9735542631568501</v>
+        <v>0.9727076967810903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>957</v>
@@ -857,19 +857,19 @@
         <v>930446</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>918137</v>
+        <v>917562</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>938660</v>
+        <v>940236</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9676489112603706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9548476186327445</v>
+        <v>0.9542499991376445</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9761921143487556</v>
+        <v>0.9778310073953093</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>18982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11012</v>
+        <v>11448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30031</v>
+        <v>29643</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02580902760776473</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01497237949259289</v>
+        <v>0.0155650703875784</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04083087751277453</v>
+        <v>0.0403037270596416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -982,19 +982,19 @@
         <v>43486</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32866</v>
+        <v>31261</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59077</v>
+        <v>58001</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06952204349497525</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.052544100313382</v>
+        <v>0.04997843659111342</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09444814127893865</v>
+        <v>0.09272905037534931</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -1003,19 +1003,19 @@
         <v>62468</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47081</v>
+        <v>48540</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77914</v>
+        <v>81566</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04589908951054716</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03459319281963222</v>
+        <v>0.03566506805927996</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05724861652149684</v>
+        <v>0.05993182293467773</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>716507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>705458</v>
+        <v>705846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>724477</v>
+        <v>724041</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9741909723922353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9591691224872254</v>
+        <v>0.9596962729403585</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9850276205074074</v>
+        <v>0.9844349296124216</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>550</v>
@@ -1053,19 +1053,19 @@
         <v>582008</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>566417</v>
+        <v>567493</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>592628</v>
+        <v>594233</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9304779565050247</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9055518587210616</v>
+        <v>0.9072709496246508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9474558996866181</v>
+        <v>0.9500215634088869</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1235</v>
@@ -1074,19 +1074,19 @@
         <v>1298514</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1283068</v>
+        <v>1279416</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1313901</v>
+        <v>1312442</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9541009104894528</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9427513834785032</v>
+        <v>0.9400681770653222</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9654068071803678</v>
+        <v>0.9643349319407201</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>29856</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19475</v>
+        <v>20461</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40325</v>
+        <v>42106</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04674664375279015</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03049292366484447</v>
+        <v>0.03203664944581441</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06313921881639702</v>
+        <v>0.06592772636550052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1199,19 +1199,19 @@
         <v>58016</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44796</v>
+        <v>44334</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73849</v>
+        <v>75224</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08411307165835526</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06494516894868368</v>
+        <v>0.06427587850778667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1070666757380775</v>
+        <v>0.1090610858396691</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -1220,19 +1220,19 @@
         <v>87872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72397</v>
+        <v>70312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108222</v>
+        <v>106648</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06614821653747335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05449892700930554</v>
+        <v>0.05292930841741628</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08146703052565669</v>
+        <v>0.08028256187524904</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>608812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>598343</v>
+        <v>596562</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>619193</v>
+        <v>618207</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9532533562472099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9368607811836029</v>
+        <v>0.9340722736344995</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9695070763351555</v>
+        <v>0.9679633505541856</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>603</v>
@@ -1270,19 +1270,19 @@
         <v>631728</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615895</v>
+        <v>614520</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>644948</v>
+        <v>645410</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9158869283416448</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8929333242619225</v>
+        <v>0.8909389141603311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9350548310513163</v>
+        <v>0.9357241214922134</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1188</v>
@@ -1291,19 +1291,19 @@
         <v>1240540</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1220190</v>
+        <v>1221764</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1256015</v>
+        <v>1258100</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9338517834625266</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9185329694743434</v>
+        <v>0.9197174381247509</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9455010729906945</v>
+        <v>0.9470706915825837</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>35206</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24961</v>
+        <v>24649</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48449</v>
+        <v>47625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06781447599479168</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04808092444878741</v>
+        <v>0.04748072536410098</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0933250408376556</v>
+        <v>0.09173610595020891</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -1416,19 +1416,19 @@
         <v>66059</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51570</v>
+        <v>51917</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83156</v>
+        <v>82170</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1281093486244337</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1000109290082793</v>
+        <v>0.1006845274573462</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1612663947129871</v>
+        <v>0.1593550057562204</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -1437,19 +1437,19 @@
         <v>101264</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83199</v>
+        <v>81969</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121325</v>
+        <v>122106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.097859796465825</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08040172865018257</v>
+        <v>0.07921340018133169</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1172461531604363</v>
+        <v>0.1180004631591886</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>483941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>470698</v>
+        <v>471522</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>494186</v>
+        <v>494498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9321855240052083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9066749591623443</v>
+        <v>0.9082638940497914</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9519190755512126</v>
+        <v>0.952519274635899</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>437</v>
@@ -1487,19 +1487,19 @@
         <v>449583</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>432486</v>
+        <v>433472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>464072</v>
+        <v>463725</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8718906513755663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.838733605287014</v>
+        <v>0.8406449942437796</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8999890709917209</v>
+        <v>0.8993154725426539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>887</v>
@@ -1508,19 +1508,19 @@
         <v>933525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>913464</v>
+        <v>912683</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>951590</v>
+        <v>952820</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.902140203534175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8827538468395637</v>
+        <v>0.8819995368408114</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9195982713498174</v>
+        <v>0.9207865998186683</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>52710</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40249</v>
+        <v>40086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66572</v>
+        <v>65744</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1363046424193619</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1040816227694103</v>
+        <v>0.1036599537577227</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1721502217165489</v>
+        <v>0.1700085861248401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -1633,19 +1633,19 @@
         <v>62756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48867</v>
+        <v>47831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79036</v>
+        <v>79410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1553425957194379</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1209630087779299</v>
+        <v>0.1183978337851147</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1956412743485569</v>
+        <v>0.1965670868477329</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>117</v>
@@ -1654,19 +1654,19 @@
         <v>115467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97907</v>
+        <v>97458</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137483</v>
+        <v>136261</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1460315995103411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1238232549344113</v>
+        <v>0.1232553374322667</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1738764788033006</v>
+        <v>0.1723307509919937</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>334000</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>320138</v>
+        <v>320966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>346461</v>
+        <v>346624</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8636953575806381</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8278497782834512</v>
+        <v>0.82999141387516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8959183772305898</v>
+        <v>0.8963400462422773</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>334</v>
@@ -1704,19 +1704,19 @@
         <v>341230</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>324950</v>
+        <v>324576</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>355119</v>
+        <v>356155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8446574042805621</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8043587256514431</v>
+        <v>0.8034329131522673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8790369912220698</v>
+        <v>0.8816021662148856</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>671</v>
@@ -1725,19 +1725,19 @@
         <v>675229</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>653213</v>
+        <v>654435</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>692789</v>
+        <v>693238</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8539684004896588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8261235211966995</v>
+        <v>0.8276692490080063</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8761767450655888</v>
+        <v>0.8767446625677334</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>47989</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36256</v>
+        <v>36156</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60491</v>
+        <v>60465</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1640185161310269</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.123917621239754</v>
+        <v>0.1235738088380643</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2067482787932212</v>
+        <v>0.2066583687261748</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -1850,19 +1850,19 @@
         <v>100792</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86509</v>
+        <v>86382</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>116639</v>
+        <v>117647</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2939110492299909</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2522607445129458</v>
+        <v>0.2518912088209457</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3401203513376778</v>
+        <v>0.3430602767483292</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>157</v>
@@ -1871,19 +1871,19 @@
         <v>148781</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>131730</v>
+        <v>130481</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170130</v>
+        <v>169696</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2341103718509992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2072795512101134</v>
+        <v>0.2053139750964833</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2677031998176133</v>
+        <v>0.2670206446381637</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>244594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232092</v>
+        <v>232118</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256327</v>
+        <v>256427</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8359814838689731</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7932517212067788</v>
+        <v>0.7933416312738253</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8760823787602461</v>
+        <v>0.8764261911619358</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>264</v>
@@ -1921,19 +1921,19 @@
         <v>242142</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>226295</v>
+        <v>225287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256425</v>
+        <v>256552</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7060889507700091</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6598796486623223</v>
+        <v>0.6569397232516709</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7477392554870543</v>
+        <v>0.7481087911790544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>517</v>
@@ -1942,19 +1942,19 @@
         <v>486736</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>465387</v>
+        <v>465821</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>503787</v>
+        <v>505036</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7658896281490007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7322968001823867</v>
+        <v>0.7329793553618363</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7927204487898868</v>
+        <v>0.7946860249035169</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>71548</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58742</v>
+        <v>59141</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85994</v>
+        <v>84679</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3408959761706902</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2798795457351559</v>
+        <v>0.2817824835775333</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4097229793470878</v>
+        <v>0.4034580247445303</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>124</v>
@@ -2067,19 +2067,19 @@
         <v>142598</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121992</v>
+        <v>123998</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>161762</v>
+        <v>160349</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4270583284228606</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3653453965296731</v>
+        <v>0.3713525090354017</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4844522442260208</v>
+        <v>0.4802202351212647</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>199</v>
@@ -2088,19 +2088,19 @@
         <v>214146</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191945</v>
+        <v>192827</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>238658</v>
+        <v>238264</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3938028799284118</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3529748427617483</v>
+        <v>0.3545976110026608</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4388774419213423</v>
+        <v>0.4381544173835624</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>138335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>123889</v>
+        <v>125204</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>151141</v>
+        <v>150742</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6591040238293098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5902770206529122</v>
+        <v>0.5965419752554691</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7201204542648442</v>
+        <v>0.7182175164224667</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>166</v>
@@ -2138,19 +2138,19 @@
         <v>191310</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>172146</v>
+        <v>173559</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>211916</v>
+        <v>209910</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5729416715771394</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5155477557739793</v>
+        <v>0.5197797648787353</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6346546034703273</v>
+        <v>0.6286474909645984</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>311</v>
@@ -2159,19 +2159,19 @@
         <v>329645</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>305133</v>
+        <v>305527</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>351846</v>
+        <v>350964</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6061971200715882</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5611225580786579</v>
+        <v>0.5618455826164377</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.647025157238252</v>
+        <v>0.6454023889973393</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>267438</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>236604</v>
+        <v>233482</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>300809</v>
+        <v>297001</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08162209187508913</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0722116170627532</v>
+        <v>0.07125861352706866</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09180680694019218</v>
+        <v>0.09064470691812312</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>474</v>
@@ -2284,19 +2284,19 @@
         <v>493667</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>451783</v>
+        <v>458020</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>534499</v>
+        <v>541117</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1460901285196373</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1336954076318706</v>
+        <v>0.1355410033041544</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.158173292165208</v>
+        <v>0.1601318938960184</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>745</v>
@@ -2305,19 +2305,19 @@
         <v>761106</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>709601</v>
+        <v>711257</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>813398</v>
+        <v>815127</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1143532675669832</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1066149283771311</v>
+        <v>0.1068637554077966</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1222099308664998</v>
+        <v>0.1224697837226158</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3009105</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2975734</v>
+        <v>2979542</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3039939</v>
+        <v>3043061</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9183779081249108</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9081931930598077</v>
+        <v>0.9093552930818768</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9277883829372469</v>
+        <v>0.9287413864729308</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2823</v>
@@ -2355,19 +2355,19 @@
         <v>2885530</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2844698</v>
+        <v>2838080</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2927414</v>
+        <v>2921177</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8539098714803627</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8418267078347923</v>
+        <v>0.8398681061039814</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8663045923681294</v>
+        <v>0.8644589966958456</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5766</v>
@@ -2376,19 +2376,19 @@
         <v>5894635</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5842343</v>
+        <v>5840614</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5946140</v>
+        <v>5944484</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8856467324330168</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8777900691335001</v>
+        <v>0.8775302162773841</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8933850716228688</v>
+        <v>0.8931362445922035</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>12477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7366</v>
+        <v>6789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21633</v>
+        <v>19959</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02747278882716254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01621883760062736</v>
+        <v>0.01494812228535382</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04763360817471059</v>
+        <v>0.04394929035827633</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2744,19 +2744,19 @@
         <v>18729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11025</v>
+        <v>11826</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28678</v>
+        <v>29315</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04353239138411397</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02562681279419345</v>
+        <v>0.02748858967373712</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06665667452802068</v>
+        <v>0.06813696914349238</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -2765,19 +2765,19 @@
         <v>31206</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21467</v>
+        <v>22265</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43271</v>
+        <v>43855</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03528543865341163</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02427314103275217</v>
+        <v>0.02517589307521335</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0489277990124567</v>
+        <v>0.04958861052162405</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>441669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432513</v>
+        <v>434187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>446780</v>
+        <v>447357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9725272111728375</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9523663918252896</v>
+        <v>0.9560507096417237</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9837811623993726</v>
+        <v>0.9850518777146463</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>403</v>
@@ -2815,19 +2815,19 @@
         <v>411501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>401552</v>
+        <v>400915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>419205</v>
+        <v>418404</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9564676086158861</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9333433254719783</v>
+        <v>0.9318630308565077</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9743731872058063</v>
+        <v>0.9725114103262629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>836</v>
@@ -2836,19 +2836,19 @@
         <v>853170</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>841105</v>
+        <v>840521</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>862909</v>
+        <v>862111</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9647145613465884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9510722009875433</v>
+        <v>0.9504113894783762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9757268589672483</v>
+        <v>0.9748241069247867</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>22013</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14531</v>
+        <v>13318</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34357</v>
+        <v>33076</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03208162538780174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02117652593125537</v>
+        <v>0.01940986504262792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05007079359326483</v>
+        <v>0.04820455003894578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -2961,19 +2961,19 @@
         <v>30434</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21005</v>
+        <v>19963</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44339</v>
+        <v>42448</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04995858783926544</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03448015606831027</v>
+        <v>0.03276903301113149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07278303705574522</v>
+        <v>0.06967890895063653</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -2982,19 +2982,19 @@
         <v>52448</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39078</v>
+        <v>38603</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69349</v>
+        <v>70104</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04048894586551383</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03016783328296063</v>
+        <v>0.02980111015566276</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05353634975072908</v>
+        <v>0.0541192329665102</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>664153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>651809</v>
+        <v>653090</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>671635</v>
+        <v>672848</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9679183746121982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9499292064067352</v>
+        <v>0.9517954499610543</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9788234740687447</v>
+        <v>0.9805901349573721</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>542</v>
@@ -3032,19 +3032,19 @@
         <v>578757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>564852</v>
+        <v>566743</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>588186</v>
+        <v>589228</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9500414121607346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9272169629442557</v>
+        <v>0.9303210910493636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.96551984393169</v>
+        <v>0.9672309669888687</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1188</v>
@@ -3053,19 +3053,19 @@
         <v>1242909</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1226008</v>
+        <v>1225253</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1256279</v>
+        <v>1256754</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9595110541344861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9464636502492721</v>
+        <v>0.9458807670334894</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9698321667170395</v>
+        <v>0.9701988898443366</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>41203</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30904</v>
+        <v>30642</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56293</v>
+        <v>57907</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06042692090687712</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04532219980396798</v>
+        <v>0.04493810958359583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08255726808481156</v>
+        <v>0.08492446982391255</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -3178,19 +3178,19 @@
         <v>79834</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63953</v>
+        <v>63519</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>99272</v>
+        <v>97982</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1124611347497818</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09009005957212932</v>
+        <v>0.08947851818975618</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1398431768426938</v>
+        <v>0.1380262933499176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -3199,19 +3199,19 @@
         <v>121037</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>103266</v>
+        <v>101981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146916</v>
+        <v>146020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08696779751759372</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0741988805724936</v>
+        <v>0.07327554086001963</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1055624117993407</v>
+        <v>0.1049190263939919</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>640660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>625570</v>
+        <v>623956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>650959</v>
+        <v>651221</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9395730790931229</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9174427319151885</v>
+        <v>0.9150755301760877</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9546778001960322</v>
+        <v>0.9550618904164043</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>592</v>
@@ -3249,19 +3249,19 @@
         <v>630047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>610609</v>
+        <v>611899</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>645928</v>
+        <v>646362</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8875388652502182</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8601568231573061</v>
+        <v>0.8619737066500824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9099099404278707</v>
+        <v>0.9105214818102438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1203</v>
@@ -3270,19 +3270,19 @@
         <v>1270706</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1244827</v>
+        <v>1245723</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1288477</v>
+        <v>1289762</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9130322024824062</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8944375882006598</v>
+        <v>0.895080973606008</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9258011194275064</v>
+        <v>0.9267244591399803</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>49029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35744</v>
+        <v>36794</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64542</v>
+        <v>64154</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07977186403261931</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05815598402858371</v>
+        <v>0.05986518002007463</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1050122480288618</v>
+        <v>0.1043796894720131</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -3395,19 +3395,19 @@
         <v>95043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76770</v>
+        <v>78448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114239</v>
+        <v>117397</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1542405439552209</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1245860303555944</v>
+        <v>0.1273092334713824</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1853935968733191</v>
+        <v>0.1905180629034037</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -3416,19 +3416,19 @@
         <v>144072</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122162</v>
+        <v>120781</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>170160</v>
+        <v>169105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.11705407500624</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09925257214969897</v>
+        <v>0.09813094693803991</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1382500250287984</v>
+        <v>0.1373926055365901</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>565588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>550075</v>
+        <v>550463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>578873</v>
+        <v>577823</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9202281359673807</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8949877519711382</v>
+        <v>0.895620310527987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9418440159714163</v>
+        <v>0.9401348199799254</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>453</v>
@@ -3466,19 +3466,19 @@
         <v>521156</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>501960</v>
+        <v>498802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>539429</v>
+        <v>537751</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8457594560447791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.814606403126681</v>
+        <v>0.8094819370965963</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8754139696444057</v>
+        <v>0.8726907665286175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>956</v>
@@ -3487,19 +3487,19 @@
         <v>1086744</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1060656</v>
+        <v>1061711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1108654</v>
+        <v>1110035</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.88294592499376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8617499749712018</v>
+        <v>0.8626073944634098</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.900747427850301</v>
+        <v>0.9018690530619601</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>67536</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52750</v>
+        <v>53198</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82849</v>
+        <v>81784</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1572699275696157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1228369577716136</v>
+        <v>0.1238804767611706</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.192927798827897</v>
+        <v>0.1904491924647861</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -3612,19 +3612,19 @@
         <v>122988</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>104121</v>
+        <v>104147</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142205</v>
+        <v>142808</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2758263449429414</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2335138820939845</v>
+        <v>0.2335712397750419</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3189246224902104</v>
+        <v>0.3202783468004788</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -3633,19 +3633,19 @@
         <v>190524</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>166413</v>
+        <v>167282</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>216644</v>
+        <v>218086</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2176627297802071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1901172678534122</v>
+        <v>0.1911104278212097</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2475036439550748</v>
+        <v>0.24915107335817</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>361893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>346580</v>
+        <v>347645</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>376679</v>
+        <v>376231</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8427300724303843</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8070722011721037</v>
+        <v>0.8095508075352139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8771630422283864</v>
+        <v>0.8761195232388294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>291</v>
@@ -3683,19 +3683,19 @@
         <v>322900</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>303683</v>
+        <v>303080</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>341767</v>
+        <v>341741</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7241736550570587</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6810753775097899</v>
+        <v>0.6797216531995212</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7664861179060156</v>
+        <v>0.7664287602249581</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>620</v>
@@ -3704,19 +3704,19 @@
         <v>684793</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>658673</v>
+        <v>657231</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>708904</v>
+        <v>708035</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7823372702197929</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7524963560449252</v>
+        <v>0.7508489266418299</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8098827321465878</v>
+        <v>0.8088895721787903</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>73323</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58497</v>
+        <v>58225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90739</v>
+        <v>90625</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2366896634646298</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1888291580816373</v>
+        <v>0.187951513313397</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2929075952005971</v>
+        <v>0.2925405638959408</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>129</v>
@@ -3829,19 +3829,19 @@
         <v>130576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>113488</v>
+        <v>112886</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>148222</v>
+        <v>151390</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3688640648590529</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3205904223549482</v>
+        <v>0.3188915321086102</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4187117433687437</v>
+        <v>0.4276611184299573</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>192</v>
@@ -3850,19 +3850,19 @@
         <v>203900</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176814</v>
+        <v>180884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>228988</v>
+        <v>228895</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3071784633200835</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2663732112482074</v>
+        <v>0.2725051488971741</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3449741580186874</v>
+        <v>0.3448342350241518</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>236463</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219047</v>
+        <v>219161</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251289</v>
+        <v>251561</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7633103365353702</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7070924047994031</v>
+        <v>0.7074594361040593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8111708419183629</v>
+        <v>0.812048486686603</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>215</v>
@@ -3900,19 +3900,19 @@
         <v>223420</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>205774</v>
+        <v>202606</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>240508</v>
+        <v>241110</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6311359351409471</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5812882566312564</v>
+        <v>0.5723388815700425</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6794095776450521</v>
+        <v>0.6811084678913897</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>434</v>
@@ -3921,19 +3921,19 @@
         <v>459882</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>434794</v>
+        <v>434887</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>486968</v>
+        <v>482898</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6928215366799165</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6550258419813125</v>
+        <v>0.6551657649758482</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7336267887517925</v>
+        <v>0.7274948511028259</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>110940</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94057</v>
+        <v>94945</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127538</v>
+        <v>127022</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4440243539604666</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3764511460477099</v>
+        <v>0.3800047918022688</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5104551962031586</v>
+        <v>0.5083923462980569</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>210</v>
@@ -4046,19 +4046,19 @@
         <v>232559</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>212738</v>
+        <v>212717</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>250631</v>
+        <v>253482</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5978691638470753</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5469150763897925</v>
+        <v>0.5468597020720963</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6443308484950276</v>
+        <v>0.6516603454976452</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>308</v>
@@ -4067,19 +4067,19 @@
         <v>343498</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>316910</v>
+        <v>315897</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>370412</v>
+        <v>371033</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5376993753142271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4960781057828774</v>
+        <v>0.4944933625578827</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5798289537789388</v>
+        <v>0.5808008744840929</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>138911</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>122313</v>
+        <v>122829</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>155794</v>
+        <v>154906</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5559756460395333</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4895448037968411</v>
+        <v>0.4916076537019431</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6235488539522898</v>
+        <v>0.6199952081977312</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>140</v>
@@ -4117,19 +4117,19 @@
         <v>156420</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>138348</v>
+        <v>135497</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>176241</v>
+        <v>176262</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4021308361529247</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3556691515049726</v>
+        <v>0.3483396545023549</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4530849236102075</v>
+        <v>0.4531402979279037</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>264</v>
@@ -4138,19 +4138,19 @@
         <v>295332</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>268418</v>
+        <v>267797</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>321920</v>
+        <v>322933</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4623006246857729</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4201710462210612</v>
+        <v>0.419199125515907</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5039218942171226</v>
+        <v>0.5055066374421173</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>376521</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>337422</v>
+        <v>338987</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>415907</v>
+        <v>415010</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1099056926112186</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09849274325348616</v>
+        <v>0.09894960269887848</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1214023683195498</v>
+        <v>0.121140322118327</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>659</v>
@@ -4263,19 +4263,19 @@
         <v>710163</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>667240</v>
+        <v>661490</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>760759</v>
+        <v>757789</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1998002285039061</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1877240959877323</v>
+        <v>0.1861066158704865</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.214035376244288</v>
+        <v>0.2131996717722293</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1002</v>
@@ -4284,19 +4284,19 @@
         <v>1086684</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1025021</v>
+        <v>1024864</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1151536</v>
+        <v>1149353</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1556804355326606</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1468464836656466</v>
+        <v>0.1468240236114814</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.164971292363422</v>
+        <v>0.1646585147154178</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3049337</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3009951</v>
+        <v>3010848</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3088436</v>
+        <v>3086871</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8900943073887814</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8785976316804502</v>
+        <v>0.8788596778816731</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9015072567465139</v>
+        <v>0.9010503973011216</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2636</v>
@@ -4334,19 +4334,19 @@
         <v>2844200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2793604</v>
+        <v>2796574</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2887123</v>
+        <v>2892873</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8001997714960939</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.785964623755712</v>
+        <v>0.7868003282277706</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8122759040122677</v>
+        <v>0.8138933841295135</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5501</v>
@@ -4355,19 +4355,19 @@
         <v>5893538</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5828686</v>
+        <v>5830869</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5955201</v>
+        <v>5955358</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8443195644673394</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.835028707636578</v>
+        <v>0.8353414852845822</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8531535163343534</v>
+        <v>0.8531759763885186</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>7627</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2979</v>
+        <v>2968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15188</v>
+        <v>15813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01818347678340303</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007101941314466796</v>
+        <v>0.007076226901501097</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03620907653765389</v>
+        <v>0.03769915298555406</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4723,19 +4723,19 @@
         <v>11921</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6562</v>
+        <v>6343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20563</v>
+        <v>19478</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03012268982936553</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01658135535029399</v>
+        <v>0.01602766246684352</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05195951124022432</v>
+        <v>0.04921789369238042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4744,19 +4744,19 @@
         <v>19549</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11675</v>
+        <v>11840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29444</v>
+        <v>30859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02397947648634575</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0143212266256959</v>
+        <v>0.01452395921348578</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0361184604400142</v>
+        <v>0.03785313554579356</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>411836</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>404275</v>
+        <v>403650</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>416484</v>
+        <v>416495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.981816523216597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9637909234623461</v>
+        <v>0.9623008470144463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9928980586855333</v>
+        <v>0.992923773098499</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>392</v>
@@ -4794,19 +4794,19 @@
         <v>383834</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>375192</v>
+        <v>376277</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>389193</v>
+        <v>389412</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9698773101706345</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9480404887597759</v>
+        <v>0.9507821063076198</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9834186446497061</v>
+        <v>0.9839723375331566</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>778</v>
@@ -4815,19 +4815,19 @@
         <v>795669</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>785774</v>
+        <v>784359</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>803543</v>
+        <v>803378</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9760205235136542</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9638815395599858</v>
+        <v>0.9621468644542064</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9856787733743041</v>
+        <v>0.9854760407865143</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>20578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12730</v>
+        <v>13044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31760</v>
+        <v>31862</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03484929920240769</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02155806225102063</v>
+        <v>0.02208969534268423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0537847758893398</v>
+        <v>0.05395741763110307</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -4940,19 +4940,19 @@
         <v>29671</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19906</v>
+        <v>20120</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40194</v>
+        <v>42327</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0526499669172719</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03532263357501333</v>
+        <v>0.03570234984842262</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07132368431486108</v>
+        <v>0.0751090569099007</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -4961,19 +4961,19 @@
         <v>50249</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37232</v>
+        <v>37540</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65955</v>
+        <v>66588</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04354176595248169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03226206580267468</v>
+        <v>0.03252922644273799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05715132163630979</v>
+        <v>0.05770032061502758</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>569918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>558736</v>
+        <v>558634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>577766</v>
+        <v>577452</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9651507007975924</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9462152241106603</v>
+        <v>0.9460425823688969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9784419377489794</v>
+        <v>0.9779103046573158</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>550</v>
@@ -5011,19 +5011,19 @@
         <v>533873</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>523350</v>
+        <v>521217</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>543638</v>
+        <v>543424</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9473500330827281</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.928676315685139</v>
+        <v>0.9248909430900993</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9646773664249867</v>
+        <v>0.9642976501515774</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1098</v>
@@ -5032,19 +5032,19 @@
         <v>1103791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1088085</v>
+        <v>1087452</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1116808</v>
+        <v>1116500</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9564582340475183</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9428486783636895</v>
+        <v>0.9422996793849723</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9677379341973253</v>
+        <v>0.9674707735572619</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>27942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18171</v>
+        <v>18639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39183</v>
+        <v>40186</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0417614571023124</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02715800647800526</v>
+        <v>0.02785700184185045</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05856127911220262</v>
+        <v>0.06006052360724781</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -5157,19 +5157,19 @@
         <v>50166</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37992</v>
+        <v>37903</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66087</v>
+        <v>65335</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07584963963393442</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05744309892905797</v>
+        <v>0.05730787142647549</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0999226068662335</v>
+        <v>0.0987844919974406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -5178,19 +5178,19 @@
         <v>78108</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63054</v>
+        <v>63487</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97302</v>
+        <v>97567</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05870677449968052</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04739196683057999</v>
+        <v>0.0477175000093323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07313280335336836</v>
+        <v>0.07333224264915995</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>641155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>629914</v>
+        <v>628911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>650926</v>
+        <v>650458</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9582385428976876</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9414387208877971</v>
+        <v>0.9399394763927519</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9728419935219945</v>
+        <v>0.9721429981581495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>618</v>
@@ -5228,19 +5228,19 @@
         <v>611220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>595299</v>
+        <v>596051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>623394</v>
+        <v>623483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9241503603660656</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9000773931337666</v>
+        <v>0.9012155080025595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9425569010709421</v>
+        <v>0.9426921285735246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1229</v>
@@ -5249,19 +5249,19 @@
         <v>1252375</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1233181</v>
+        <v>1232916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1267429</v>
+        <v>1266996</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9412932255003195</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9268671966466319</v>
+        <v>0.9266677573508402</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9526080331694201</v>
+        <v>0.9522824999906677</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>59170</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44351</v>
+        <v>45682</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75617</v>
+        <v>78127</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09158823585192362</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06864930385426296</v>
+        <v>0.07071044339970373</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1170456852912894</v>
+        <v>0.1209312212313395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -5374,19 +5374,19 @@
         <v>81462</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64888</v>
+        <v>64146</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99881</v>
+        <v>98875</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1255051253156328</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09996992196090554</v>
+        <v>0.09882598171198487</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1538816543060669</v>
+        <v>0.1523313546254585</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -5395,19 +5395,19 @@
         <v>140633</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>118081</v>
+        <v>118504</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165022</v>
+        <v>163965</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1085863377820343</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09117367895345191</v>
+        <v>0.09150001143986315</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1274180818909457</v>
+        <v>0.1266015919376785</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>586878</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>570431</v>
+        <v>567921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>601697</v>
+        <v>600366</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9084117641480763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8829543147087106</v>
+        <v>0.8790687787686602</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9313506961457371</v>
+        <v>0.9292895566002962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>526</v>
@@ -5445,19 +5445,19 @@
         <v>567615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>549196</v>
+        <v>550202</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>584189</v>
+        <v>584931</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8744948746843673</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.846118345693933</v>
+        <v>0.8476686453745415</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9000300780390944</v>
+        <v>0.9011740182880151</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1055</v>
@@ -5466,19 +5466,19 @@
         <v>1154492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1130103</v>
+        <v>1131160</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1177044</v>
+        <v>1176621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8914136622179657</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8725819181090542</v>
+        <v>0.8733984080623213</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9088263210465477</v>
+        <v>0.9084999885601367</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>57649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43168</v>
+        <v>43217</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74706</v>
+        <v>74931</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1206255699122672</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09032477216377145</v>
+        <v>0.09042818328368202</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1563160615007448</v>
+        <v>0.1567861963069598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>102</v>
@@ -5591,19 +5591,19 @@
         <v>116067</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96650</v>
+        <v>97624</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137935</v>
+        <v>138674</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2336055922599807</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1945257614841556</v>
+        <v>0.1964861110891487</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2776199296424288</v>
+        <v>0.2791076456797892</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>151</v>
@@ -5612,19 +5612,19 @@
         <v>173716</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>150021</v>
+        <v>148469</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>200536</v>
+        <v>199341</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1782126766652324</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1539046246835713</v>
+        <v>0.1523123015751201</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2057271828164345</v>
+        <v>0.2045014485574835</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>420269</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>403212</v>
+        <v>402987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>434750</v>
+        <v>434701</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8793744300877328</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8436839384992552</v>
+        <v>0.8432138036930394</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9096752278362286</v>
+        <v>0.9095718167163178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>331</v>
@@ -5662,19 +5662,19 @@
         <v>380782</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>358914</v>
+        <v>358175</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>400199</v>
+        <v>399225</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7663944077400193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7223800703575712</v>
+        <v>0.7208923543202107</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8054742385158445</v>
+        <v>0.8035138889108514</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>706</v>
@@ -5683,19 +5683,19 @@
         <v>801051</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>774231</v>
+        <v>775426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>824746</v>
+        <v>826298</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8217873233347677</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7942728171835655</v>
+        <v>0.7954985514425165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8460953753164286</v>
+        <v>0.8476876984248799</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>55550</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41760</v>
+        <v>42904</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70535</v>
+        <v>69804</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1661542733068353</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1249052069969188</v>
+        <v>0.1283294558953776</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2109751148399148</v>
+        <v>0.2087875274743441</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -5808,19 +5808,19 @@
         <v>122360</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>104738</v>
+        <v>103457</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>141711</v>
+        <v>139859</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3239085251646078</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2772591565874512</v>
+        <v>0.2738684390759185</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3751327233668824</v>
+        <v>0.370231451795328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>168</v>
@@ -5829,19 +5829,19 @@
         <v>177911</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>155371</v>
+        <v>155151</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>202324</v>
+        <v>206022</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2498422826692302</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2181888058188125</v>
+        <v>0.2178808286107183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2841258991293277</v>
+        <v>0.2893200035800344</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>278780</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263795</v>
+        <v>264526</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292570</v>
+        <v>291426</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8338457266931647</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7890248851600845</v>
+        <v>0.7912124725256557</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.875094793003081</v>
+        <v>0.8716705441046223</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -5879,19 +5879,19 @@
         <v>255402</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>236051</v>
+        <v>237903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273024</v>
+        <v>274305</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6760914748353922</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6248672766331176</v>
+        <v>0.6297685482046717</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7227408434125486</v>
+        <v>0.726131560924081</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -5900,19 +5900,19 @@
         <v>534181</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>509768</v>
+        <v>506070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>556721</v>
+        <v>556941</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7501577173307697</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7158741008706724</v>
+        <v>0.7106799964199656</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7818111941811875</v>
+        <v>0.7821191713892817</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>85333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71571</v>
+        <v>71581</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98709</v>
+        <v>100333</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3320392602446692</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2784903012986638</v>
+        <v>0.2785288415767186</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3840843324372864</v>
+        <v>0.3904051504123698</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>160</v>
@@ -6025,19 +6025,19 @@
         <v>215909</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192901</v>
+        <v>192688</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>238457</v>
+        <v>237593</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5395441370674524</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4820491721691199</v>
+        <v>0.4815165367490531</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5958895640948692</v>
+        <v>0.5937323093213664</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>258</v>
@@ -6046,19 +6046,19 @@
         <v>301242</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>274345</v>
+        <v>274072</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>327655</v>
+        <v>329770</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4583952989266534</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4174664796942762</v>
+        <v>0.4170505881914372</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4985866507342995</v>
+        <v>0.5018056117801063</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>171665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>158289</v>
+        <v>156665</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>185427</v>
+        <v>185417</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6679607397553308</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6159156675627135</v>
+        <v>0.6095948495876302</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7215096987013372</v>
+        <v>0.7214711584232815</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>141</v>
@@ -6096,19 +6096,19 @@
         <v>184260</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>161712</v>
+        <v>162576</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>207268</v>
+        <v>207481</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4604558629325476</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.404110435905131</v>
+        <v>0.4062676906786334</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.51795082783088</v>
+        <v>0.5184834632509469</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>345</v>
@@ -6117,19 +6117,19 @@
         <v>355925</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>329512</v>
+        <v>327397</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>382822</v>
+        <v>383095</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5416047010733467</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5014133492657005</v>
+        <v>0.4981943882198937</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5825335203057238</v>
+        <v>0.5829494118085627</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>313851</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>279664</v>
+        <v>277423</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>343802</v>
+        <v>345535</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09246289939990208</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08239111143763561</v>
+        <v>0.08173079213719625</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1012864138932084</v>
+        <v>0.1017971627097236</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>540</v>
@@ -6242,19 +6242,19 @@
         <v>627556</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>578805</v>
+        <v>582925</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>675795</v>
+        <v>679826</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.177048554502724</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1632946993012803</v>
+        <v>0.1644571637175529</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1906580238612462</v>
+        <v>0.1917950354221123</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>847</v>
@@ -6263,19 +6263,19 @@
         <v>941407</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>882403</v>
+        <v>883215</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1003318</v>
+        <v>1001690</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1356711511267499</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1271677465372974</v>
+        <v>0.1272847776515448</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.14459346950129</v>
+        <v>0.1443587801942836</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3080499</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3050548</v>
+        <v>3048815</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3114686</v>
+        <v>3116927</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.907537100600098</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8987135861067912</v>
+        <v>0.8982028372902768</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9176088885623642</v>
+        <v>0.9182692078628039</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2798</v>
@@ -6313,19 +6313,19 @@
         <v>2916986</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2868747</v>
+        <v>2864716</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2965737</v>
+        <v>2961617</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8229514454972759</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8093419761387538</v>
+        <v>0.8082049645778877</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8367053006987196</v>
+        <v>0.8355428362824471</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5722</v>
@@ -6334,19 +6334,19 @@
         <v>5997485</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5935574</v>
+        <v>5937202</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6056489</v>
+        <v>6055677</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8643288488732501</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8554065304987094</v>
+        <v>0.8556412198057163</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8728322534627025</v>
+        <v>0.872715222348455</v>
       </c>
     </row>
     <row r="27">
@@ -6694,19 +6694,19 @@
         <v>17735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8390</v>
+        <v>8149</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38263</v>
+        <v>33962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04892234342813363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02314402196660233</v>
+        <v>0.02247994298099056</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1055498592761214</v>
+        <v>0.09368503566373573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -6715,19 +6715,19 @@
         <v>17735</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7585</v>
+        <v>8191</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33834</v>
+        <v>35413</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0230232628242915</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009846384325187944</v>
+        <v>0.01063324005259116</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04392316332189696</v>
+        <v>0.04597286508991192</v>
       </c>
     </row>
     <row r="5">
@@ -6757,19 +6757,19 @@
         <v>344777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>324249</v>
+        <v>328550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>354122</v>
+        <v>354363</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9510776565718663</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8944501407238786</v>
+        <v>0.9063149643362645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9768559780333977</v>
+        <v>0.9775200570190097</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>371</v>
@@ -6778,19 +6778,19 @@
         <v>752570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736471</v>
+        <v>734892</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762720</v>
+        <v>762114</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9769767371757085</v>
+        <v>0.9769767371757084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9560768366781028</v>
+        <v>0.9540271349100881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9901536156748116</v>
+        <v>0.9893667599474091</v>
       </c>
     </row>
     <row r="6">
@@ -6882,19 +6882,19 @@
         <v>32057</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20217</v>
+        <v>19981</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46692</v>
+        <v>47516</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06722136914759479</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04239300186359234</v>
+        <v>0.04189934597410115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09790841864332157</v>
+        <v>0.09963755285539329</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -6903,19 +6903,19 @@
         <v>25602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16478</v>
+        <v>16729</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37896</v>
+        <v>37390</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0511518797783223</v>
+        <v>0.05115187977832229</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03292312556991268</v>
+        <v>0.03342349294420612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07571547371925468</v>
+        <v>0.0747043695560012</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -6924,19 +6924,19 @@
         <v>57659</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42684</v>
+        <v>41597</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75700</v>
+        <v>76095</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05899250674448289</v>
+        <v>0.05899250674448288</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04367116833274732</v>
+        <v>0.04255914368260531</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07745072383147722</v>
+        <v>0.07785508852861138</v>
       </c>
     </row>
     <row r="8">
@@ -6953,19 +6953,19 @@
         <v>444833</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>430198</v>
+        <v>429374</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>456673</v>
+        <v>456909</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9327786308524052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9020915813566788</v>
+        <v>0.900362447144607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9576069981364077</v>
+        <v>0.9581006540258991</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>436</v>
@@ -6974,19 +6974,19 @@
         <v>474902</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>462608</v>
+        <v>463114</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>484026</v>
+        <v>483775</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9488481202216779</v>
+        <v>0.9488481202216776</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9242845262807448</v>
+        <v>0.925295630443999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9670768744300873</v>
+        <v>0.9665765070557939</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>716</v>
@@ -6995,19 +6995,19 @@
         <v>919735</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>901694</v>
+        <v>901299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>934710</v>
+        <v>935797</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9410074932555172</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.922549276168523</v>
+        <v>0.9221449114713886</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9563288316672527</v>
+        <v>0.9574408563173946</v>
       </c>
     </row>
     <row r="9">
@@ -7099,19 +7099,19 @@
         <v>37664</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26652</v>
+        <v>26424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52625</v>
+        <v>51841</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06066716899232557</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04292918499448639</v>
+        <v>0.04256203737732544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08476534099078413</v>
+        <v>0.08350246462089744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -7120,19 +7120,19 @@
         <v>62264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50714</v>
+        <v>49734</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75500</v>
+        <v>75329</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1000798784588528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.081515408907206</v>
+        <v>0.07993998914364182</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1213562607616915</v>
+        <v>0.1210812453854796</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>116</v>
@@ -7141,19 +7141,19 @@
         <v>99928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83423</v>
+        <v>83574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>119112</v>
+        <v>120867</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08039417264944929</v>
+        <v>0.0803941726494493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06711578662489885</v>
+        <v>0.06723711480394014</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09582771975445095</v>
+        <v>0.09723961325636432</v>
       </c>
     </row>
     <row r="11">
@@ -7170,19 +7170,19 @@
         <v>583173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>568212</v>
+        <v>568996</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>594185</v>
+        <v>594413</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9393328310076746</v>
+        <v>0.9393328310076745</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9152346590092161</v>
+        <v>0.9164975353791024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9570708150055139</v>
+        <v>0.9574379626226747</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>763</v>
@@ -7191,19 +7191,19 @@
         <v>559875</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>546639</v>
+        <v>546810</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>571425</v>
+        <v>572405</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8999201215411472</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8786437392383084</v>
+        <v>0.8789187546145204</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9184845910927938</v>
+        <v>0.920060010856358</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1276</v>
@@ -7212,19 +7212,19 @@
         <v>1143048</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1123864</v>
+        <v>1122109</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1159553</v>
+        <v>1159402</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9196058273505506</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.904172280245549</v>
+        <v>0.9027603867436352</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9328842133751012</v>
+        <v>0.9327628851960598</v>
       </c>
     </row>
     <row r="12">
@@ -7316,19 +7316,19 @@
         <v>91239</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74405</v>
+        <v>73196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111602</v>
+        <v>113052</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1304321363411406</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1063673291421945</v>
+        <v>0.1046390258700591</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1595427715638028</v>
+        <v>0.1616156509547227</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -7337,19 +7337,19 @@
         <v>107914</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93266</v>
+        <v>93810</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125419</v>
+        <v>123111</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1465735095773542</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1266779023212148</v>
+        <v>0.127417500402401</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1703498154522338</v>
+        <v>0.1672145522700071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>240</v>
@@ -7358,19 +7358,19 @@
         <v>199153</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>175460</v>
+        <v>174755</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>226006</v>
+        <v>222968</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1387092861796346</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1222071714727163</v>
+        <v>0.1217166738302933</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1574128772496218</v>
+        <v>0.1552964743343449</v>
       </c>
     </row>
     <row r="14">
@@ -7387,19 +7387,19 @@
         <v>608274</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>587911</v>
+        <v>586461</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>625108</v>
+        <v>626317</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8695678636588594</v>
+        <v>0.8695678636588593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8404572284361977</v>
+        <v>0.8383843490452773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8936326708578054</v>
+        <v>0.8953609741299411</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>978</v>
@@ -7408,19 +7408,19 @@
         <v>628329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>610824</v>
+        <v>613132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>642977</v>
+        <v>642433</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.853426490422646</v>
+        <v>0.8534264904226458</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8296501845477663</v>
+        <v>0.8327854477299925</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8733220976787851</v>
+        <v>0.872582499597599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1564</v>
@@ -7429,19 +7429,19 @@
         <v>1236603</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1209750</v>
+        <v>1212788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1260296</v>
+        <v>1261001</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8612907138203655</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8425871227503782</v>
+        <v>0.8447035256656551</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8777928285272838</v>
+        <v>0.8782833261697067</v>
       </c>
     </row>
     <row r="15">
@@ -7533,19 +7533,19 @@
         <v>112481</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93456</v>
+        <v>94775</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>132374</v>
+        <v>132808</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1845934736866363</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1533702687091248</v>
+        <v>0.155536309662009</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2172400942578953</v>
+        <v>0.2179519183444331</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>218</v>
@@ -7554,19 +7554,19 @@
         <v>140069</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>125495</v>
+        <v>125213</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>158385</v>
+        <v>156399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2300526239793748</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2061160017270074</v>
+        <v>0.2056538259273707</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2601357250062042</v>
+        <v>0.2568739911974286</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>333</v>
@@ -7575,19 +7575,19 @@
         <v>252550</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>225714</v>
+        <v>226891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>279537</v>
+        <v>277387</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2073138867966821</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.185284886400899</v>
+        <v>0.1862505990196819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2294666322278454</v>
+        <v>0.227702170194094</v>
       </c>
     </row>
     <row r="17">
@@ -7604,19 +7604,19 @@
         <v>496865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>476972</v>
+        <v>476538</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>515890</v>
+        <v>514571</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8154065263133636</v>
+        <v>0.8154065263133637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7827599057421046</v>
+        <v>0.7820480816555667</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8466297312908752</v>
+        <v>0.844463690337991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>784</v>
@@ -7625,19 +7625,19 @@
         <v>468786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>450470</v>
+        <v>452456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>483360</v>
+        <v>483642</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7699473760206251</v>
+        <v>0.7699473760206252</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7398642749937959</v>
+        <v>0.7431260088025715</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7938839982729925</v>
+        <v>0.7943461740726288</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1332</v>
@@ -7646,19 +7646,19 @@
         <v>965652</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>938665</v>
+        <v>940815</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>992488</v>
+        <v>991311</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7926861132033179</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7705333677721545</v>
+        <v>0.7722978298059057</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8147151135991009</v>
+        <v>0.813749400980318</v>
       </c>
     </row>
     <row r="18">
@@ -7750,19 +7750,19 @@
         <v>65879</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54663</v>
+        <v>54753</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79360</v>
+        <v>79390</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.162468181936005</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1348075933922322</v>
+        <v>0.1350283222761152</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1957145319102905</v>
+        <v>0.1957877145451586</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -7771,19 +7771,19 @@
         <v>124922</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>110101</v>
+        <v>111398</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>138636</v>
+        <v>139408</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2844527602529588</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2507036292408379</v>
+        <v>0.2536585739926456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3156797246753534</v>
+        <v>0.3174375108544301</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>318</v>
@@ -7792,19 +7792,19 @@
         <v>190801</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>173596</v>
+        <v>171489</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>210921</v>
+        <v>208429</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2258921810541585</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2055224330368308</v>
+        <v>0.2030282347726607</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2497118990497839</v>
+        <v>0.2467620050918445</v>
       </c>
     </row>
     <row r="20">
@@ -7821,19 +7821,19 @@
         <v>339611</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>326130</v>
+        <v>326100</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>350827</v>
+        <v>350737</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8375318180639949</v>
+        <v>0.837531818063995</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8042854680897095</v>
+        <v>0.8042122854548416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8651924066077673</v>
+        <v>0.8649716777238849</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>602</v>
@@ -7842,19 +7842,19 @@
         <v>314244</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>300530</v>
+        <v>299758</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>329065</v>
+        <v>327768</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7155472397470413</v>
+        <v>0.7155472397470412</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6843202753246468</v>
+        <v>0.6825624891455698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7492963707591621</v>
+        <v>0.7463414260073544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1077</v>
@@ -7863,19 +7863,19 @@
         <v>653856</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>633736</v>
+        <v>636228</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>671061</v>
+        <v>673168</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7741078189458415</v>
+        <v>0.7741078189458417</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7502881009502161</v>
+        <v>0.7532379949081557</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7944775669631695</v>
+        <v>0.7969717652273394</v>
       </c>
     </row>
     <row r="21">
@@ -7967,19 +7967,19 @@
         <v>100795</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88418</v>
+        <v>86945</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>114940</v>
+        <v>115304</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.325454051300948</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2854915045092432</v>
+        <v>0.2807352973368488</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3711268195888897</v>
+        <v>0.3723002762150779</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>477</v>
@@ -7988,19 +7988,19 @@
         <v>255744</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>239742</v>
+        <v>240512</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>271773</v>
+        <v>272084</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.551003229307221</v>
+        <v>0.5510032293072208</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5165270388424009</v>
+        <v>0.5181847490269006</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5855374939580726</v>
+        <v>0.5862072055381666</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>623</v>
@@ -8009,19 +8009,19 @@
         <v>356539</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>334645</v>
+        <v>336489</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>377952</v>
+        <v>379114</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4607351305829833</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4324422581022004</v>
+        <v>0.4348253178898205</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4884058733405444</v>
+        <v>0.4899073435949436</v>
       </c>
     </row>
     <row r="23">
@@ -8038,19 +8038,19 @@
         <v>208911</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>194766</v>
+        <v>194402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>221288</v>
+        <v>222761</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6745459486990519</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6288731804111102</v>
+        <v>0.627699723784922</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7145084954907568</v>
+        <v>0.7192647026631512</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>403</v>
@@ -8059,19 +8059,19 @@
         <v>208399</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>192370</v>
+        <v>192059</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>224401</v>
+        <v>223631</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4489967706927791</v>
+        <v>0.448996770692779</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4144625060419275</v>
+        <v>0.4137927944618335</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4834729611575994</v>
+        <v>0.4818152509730996</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>714</v>
@@ -8080,19 +8080,19 @@
         <v>417310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>395897</v>
+        <v>394735</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>439204</v>
+        <v>437360</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5392648694170167</v>
+        <v>0.5392648694170166</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5115941266594557</v>
+        <v>0.5100926564050563</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5675577418977996</v>
+        <v>0.5651746821101794</v>
       </c>
     </row>
     <row r="24">
@@ -8184,19 +8184,19 @@
         <v>440116</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>402863</v>
+        <v>400123</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>478413</v>
+        <v>479435</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1246938089421696</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.114139292084899</v>
+        <v>0.1133629790276453</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1355439976204805</v>
+        <v>0.1358335931707598</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1196</v>
@@ -8205,19 +8205,19 @@
         <v>734249</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>694120</v>
+        <v>695272</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>770180</v>
+        <v>777769</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1966618111813714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1859135352263089</v>
+        <v>0.1862220758199327</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2062855535017477</v>
+        <v>0.2083180777231591</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1683</v>
@@ -8226,19 +8226,19 @@
         <v>1174366</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1122504</v>
+        <v>1118020</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1233259</v>
+        <v>1231502</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1616884266755929</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1545480778478216</v>
+        <v>0.1539307313318631</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.169797006110402</v>
+        <v>0.1695550106056338</v>
       </c>
     </row>
     <row r="26">
@@ -8255,19 +8255,19 @@
         <v>3089460</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3051163</v>
+        <v>3050141</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3126713</v>
+        <v>3129453</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8753061910578304</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8644560023795196</v>
+        <v>0.8641664068292403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.885860707915101</v>
+        <v>0.8866370209723545</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4165</v>
@@ -8276,19 +8276,19 @@
         <v>2999314</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2963383</v>
+        <v>2955794</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3039443</v>
+        <v>3038291</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8033381888186285</v>
+        <v>0.8033381888186286</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7937144464982523</v>
+        <v>0.791681922276841</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8140864647736912</v>
+        <v>0.8137779241800673</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7050</v>
@@ -8297,19 +8297,19 @@
         <v>6088773</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6029880</v>
+        <v>6031637</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6140635</v>
+        <v>6145119</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8383115733244071</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8302029938895987</v>
+        <v>0.8304449893943662</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.845451922152179</v>
+        <v>0.8460692686681369</v>
       </c>
     </row>
     <row r="27">
